--- a/CompareSelectivityPredictions/OUTPUT/SelWin_EvaluationResults_NewThreshold.xlsx
+++ b/CompareSelectivityPredictions/OUTPUT/SelWin_EvaluationResults_NewThreshold.xlsx
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>474.2</v>
+        <v>474.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4472135954999579</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="E2" t="n">
         <v>42.6</v>
@@ -497,10 +497,10 @@
         <v>0.8944271909999159</v>
       </c>
       <c r="G2" t="n">
-        <v>203.2</v>
+        <v>203.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.774887385102322</v>
+        <v>2.880972058177587</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>642</v>
+        <v>640.8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.06201920231798</v>
+        <v>2.949576240750525</v>
       </c>
       <c r="E3" t="n">
-        <v>1799.6</v>
+        <v>1800</v>
       </c>
       <c r="F3" t="n">
-        <v>2.302172886644268</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>1498.2</v>
+        <v>1499.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.788854381999832</v>
+        <v>2.408318915758459</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>736</v>
+        <v>737.2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.06201920231798</v>
+        <v>2.949576240750525</v>
       </c>
       <c r="E4" t="n">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="F4" t="n">
-        <v>2.302172886644267</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>144.8</v>
+        <v>143.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.788854381999832</v>
+        <v>2.408318915758459</v>
       </c>
     </row>
     <row r="5">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57.8</v>
+        <v>57.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4472135954999579</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="E5" t="n">
         <v>18.4</v>
@@ -581,10 +581,10 @@
         <v>0.8944271909999159</v>
       </c>
       <c r="G5" t="n">
-        <v>63.8</v>
+        <v>63.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.774887385102322</v>
+        <v>2.880972058177587</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5843979057591623</v>
+        <v>0.5839790575916231</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002202689420729093</v>
+        <v>0.001365277990618352</v>
       </c>
       <c r="E6" t="n">
-        <v>0.964502617801047</v>
+        <v>0.9647120418848167</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001404859462303496</v>
+        <v>0.001365277990618369</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8907853403141359</v>
+        <v>0.8916230366492147</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001508362334124399</v>
+        <v>0.001047120418848149</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3918395712642881</v>
+        <v>0.3916500235535298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00138893859822659</v>
+        <v>0.0008461597428511751</v>
       </c>
       <c r="E7" t="n">
-        <v>0.463236573349049</v>
+        <v>0.4652071127556789</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01370055175279114</v>
+        <v>0.01364273394927918</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5839005859448092</v>
+        <v>0.5864111262543967</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003870771892705659</v>
+        <v>0.002834705970009489</v>
       </c>
     </row>
     <row r="8">
@@ -653,10 +653,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8913533834586465</v>
+        <v>0.8921052631578947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0008406270592104782</v>
+        <v>0.0021431868892841</v>
       </c>
       <c r="E8" t="n">
         <v>0.6983606557377049</v>
@@ -665,10 +665,10 @@
         <v>0.01466274083606421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7610486891385768</v>
+        <v>0.7625468164794007</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01039283664832328</v>
+        <v>0.0107901575212644</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.46588</v>
+        <v>0.46502</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002948219801846538</v>
+        <v>0.002146392322013859</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9732800000000001</v>
+        <v>0.9734999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001255786606076033</v>
+        <v>0.001063014581273473</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9118600000000001</v>
+        <v>0.9126</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001123832727766879</v>
+        <v>0.001494991638772621</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5443715927835695</v>
+        <v>0.544328841414436</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001265575317589489</v>
+        <v>0.0008573098736156371</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5569398382834916</v>
+        <v>0.5583892609952903</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01184720759626071</v>
+        <v>0.01239797706491167</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6607937572081404</v>
+        <v>0.6629537774983257</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005242126052339422</v>
+        <v>0.004213195390059836</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.5811643786469258</v>
+        <v>0.5808040520982882</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001852194435805242</v>
+        <v>0.001135203716039515</v>
       </c>
       <c r="E11" t="n">
-        <v>0.76922516836924</v>
+        <v>0.7700054624945614</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006237115040763686</v>
+        <v>0.00651038538108879</v>
       </c>
       <c r="G11" t="n">
-        <v>0.797854117794081</v>
+        <v>0.7991916923429142</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002983423946132459</v>
+        <v>0.002313989749344511</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6786229907133583</v>
+        <v>0.6785635169200213</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00164012545531355</v>
+        <v>0.001096567310786279</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8358217556676626</v>
+        <v>0.8359299222441905</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00752161791165231</v>
+        <v>0.007646865294250689</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8364586111548027</v>
+        <v>0.8375728604612462</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005081083119912964</v>
+        <v>0.004887548519783437</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3323782550831965</v>
+        <v>0.3324302143388934</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00268348566197815</v>
+        <v>0.00197958409676754</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5516340076315223</v>
+        <v>0.5529352996194727</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0135087161121819</v>
+        <v>0.01423610594531258</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6045067014425071</v>
+        <v>0.6070563062866297</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007219144557805375</v>
+        <v>0.005945335099416527</v>
       </c>
     </row>
     <row r="14">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9174</v>
+        <v>0.9178000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0008660254037844202</v>
+        <v>0.00137295302177457</v>
       </c>
       <c r="E14" t="n">
         <v>0.98986</v>
@@ -833,10 +833,10 @@
         <v>0.0004827007354458762</v>
       </c>
       <c r="G14" t="n">
-        <v>0.95914</v>
+        <v>0.9594400000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001672722332008513</v>
+        <v>0.001742985943718409</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6786229907133581</v>
+        <v>0.6785635169200213</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001640125455313535</v>
+        <v>0.001096567310786345</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8358217556676626</v>
+        <v>0.8359299222441905</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007521617911652379</v>
+        <v>0.007646865294250717</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8364586111548027</v>
+        <v>0.8375728604612462</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005081083119912906</v>
+        <v>0.00488754851978345</v>
       </c>
     </row>
   </sheetData>
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>459.4</v>
+        <v>447.6</v>
       </c>
       <c r="D2" t="n">
-        <v>6.107372593840988</v>
+        <v>4.277849927241488</v>
       </c>
       <c r="E2" t="n">
-        <v>46.8</v>
+        <v>47.6</v>
       </c>
       <c r="F2" t="n">
-        <v>1.643167672515498</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="G2" t="n">
-        <v>216.2</v>
+        <v>218.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.114482300479487</v>
+        <v>2.588435821108957</v>
       </c>
     </row>
     <row r="3">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>733.2</v>
+        <v>751.2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.167204273105526</v>
+        <v>8.07465169527454</v>
       </c>
       <c r="E3" t="n">
-        <v>1765.6</v>
+        <v>1751.8</v>
       </c>
       <c r="F3" t="n">
-        <v>4.03732584763727</v>
+        <v>2.774887385102321</v>
       </c>
       <c r="G3" t="n">
-        <v>1458</v>
+        <v>1448.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.738612787525831</v>
+        <v>13.95707705789432</v>
       </c>
     </row>
     <row r="4">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>644.8</v>
+        <v>626.8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.167204273105526</v>
+        <v>8.07465169527454</v>
       </c>
       <c r="E4" t="n">
-        <v>83.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="F4" t="n">
-        <v>4.03732584763727</v>
+        <v>2.774887385102321</v>
       </c>
       <c r="G4" t="n">
-        <v>185</v>
+        <v>194.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.738612787525831</v>
+        <v>13.95707705789432</v>
       </c>
     </row>
     <row r="5">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>6.107372593840988</v>
+        <v>4.277849927241487</v>
       </c>
       <c r="E5" t="n">
-        <v>14.2</v>
+        <v>13.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1.643167672515498</v>
+        <v>1.140175425099138</v>
       </c>
       <c r="G5" t="n">
-        <v>50.8</v>
+        <v>48.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.114482300479488</v>
+        <v>2.588435821108957</v>
       </c>
     </row>
     <row r="6">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6243979057591622</v>
+        <v>0.6276439790575916</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002975554395472839</v>
+        <v>0.002074514424728677</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9489005235602095</v>
+        <v>0.9420942408376962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002270102972636527</v>
+        <v>0.001414581789121098</v>
       </c>
       <c r="G6" t="n">
-        <v>0.876544502617801</v>
+        <v>0.8725654450261781</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002548829621913742</v>
+        <v>0.007126960345962541</v>
       </c>
     </row>
     <row r="7">
@@ -1073,22 +1073,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4160389247584648</v>
+        <v>0.4166120313794311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00282650659292519</v>
+        <v>0.0009494016649396338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3596444358295104</v>
+        <v>0.3287808836145431</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0141087648097917</v>
+        <v>0.006999431857584558</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5388800334793065</v>
+        <v>0.5290672966545937</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006051974245593716</v>
+        <v>0.01782621940865049</v>
       </c>
     </row>
     <row r="8">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.863533834586466</v>
+        <v>0.8413533834586465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01148002367263343</v>
+        <v>0.008041071291807327</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7672131147540984</v>
+        <v>0.780327868852459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02693717495927045</v>
+        <v>0.0186914004114613</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8097378277153557</v>
+        <v>0.8172284644194756</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01166472771715163</v>
+        <v>0.009694516183928701</v>
       </c>
     </row>
     <row r="9">
@@ -1129,22 +1129,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.53208</v>
+        <v>0.54514</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003765235716392794</v>
+        <v>0.0058380647478424</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9549</v>
+        <v>0.9474199999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002216979927739557</v>
+        <v>0.001515585695366677</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8874000000000001</v>
+        <v>0.8815399999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0016431676725155</v>
+        <v>0.008496057909407179</v>
       </c>
     </row>
     <row r="10">
@@ -1157,22 +1157,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5615292318803166</v>
+        <v>0.5572646923936113</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004255963865582995</v>
+        <v>0.001092991778960045</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4896245748071018</v>
+        <v>0.4625965700469511</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01507360711964039</v>
+        <v>0.008120176564654812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.647100992009941</v>
+        <v>0.6421468504215075</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006908343497279148</v>
+        <v>0.01177352973076103</v>
       </c>
     </row>
     <row r="11">
@@ -1185,22 +1185,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6165078878137293</v>
+        <v>0.6179812218878633</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002869674736026046</v>
+        <v>0.001238901022583965</v>
       </c>
       <c r="E11" t="n">
-        <v>0.731363887047797</v>
+        <v>0.7159973209125182</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008008906689743465</v>
+        <v>0.004321176971633945</v>
       </c>
       <c r="G11" t="n">
-        <v>0.786143356640119</v>
+        <v>0.7823096405381369</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004119749007863223</v>
+        <v>0.007932372900565327</v>
       </c>
     </row>
     <row r="12">
@@ -1213,22 +1213,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6978046531422897</v>
+        <v>0.6932456322227921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005064843700759323</v>
+        <v>0.001275765266060582</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8610538261709919</v>
+        <v>0.8638794563299612</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01349635066965794</v>
+        <v>0.009172626520301935</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8485694616361318</v>
+        <v>0.8493932948999386</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006198011021966925</v>
+        <v>0.005683696733155273</v>
       </c>
     </row>
     <row r="13">
@@ -1241,22 +1241,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3591197157112632</v>
+        <v>0.3492784624264841</v>
       </c>
       <c r="D13" t="n">
-        <v>0.009586553300855956</v>
+        <v>0.002805351330010851</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5038758391666797</v>
+        <v>0.483455162375461</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01829025337799412</v>
+        <v>0.01053265747149936</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5934653716066765</v>
+        <v>0.5889668337322569</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009732421078269445</v>
+        <v>0.01461644970976692</v>
       </c>
     </row>
     <row r="14">
@@ -1269,22 +1269,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.90994</v>
+        <v>0.8990199999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006532457424277631</v>
+        <v>0.003669741135284603</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9920199999999999</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0009011104260854942</v>
+        <v>0.000636396103067875</v>
       </c>
       <c r="G14" t="n">
-        <v>0.96632</v>
+        <v>0.9674199999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00200549245822564</v>
+        <v>0.001626960356001325</v>
       </c>
     </row>
     <row r="15">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6978046531422897</v>
+        <v>0.6932456322227921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005064843700759239</v>
+        <v>0.001275765266060582</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8610538261709919</v>
+        <v>0.8638794563299612</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01349635066965794</v>
+        <v>0.00917262652030199</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8485694616361318</v>
+        <v>0.8493932948999386</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006198011021966911</v>
+        <v>0.005683696733155236</v>
       </c>
     </row>
   </sheetData>
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>463.6</v>
+        <v>455.8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.049590136395381</v>
+        <v>3.03315017762062</v>
       </c>
       <c r="E2" t="n">
-        <v>47.2</v>
+        <v>46.6</v>
       </c>
       <c r="F2" t="n">
-        <v>1.643167672515498</v>
+        <v>1.816590212458495</v>
       </c>
       <c r="G2" t="n">
-        <v>220.8</v>
+        <v>221.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.489979919597746</v>
+        <v>3.209361307176242</v>
       </c>
     </row>
     <row r="3">
@@ -1409,22 +1409,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>726</v>
+        <v>732.8</v>
       </c>
       <c r="D3" t="n">
-        <v>5.958187643906492</v>
+        <v>5.449770637375485</v>
       </c>
       <c r="E3" t="n">
-        <v>1764.2</v>
+        <v>1754.2</v>
       </c>
       <c r="F3" t="n">
-        <v>2.280350850198276</v>
+        <v>4.919349550499538</v>
       </c>
       <c r="G3" t="n">
-        <v>1464</v>
+        <v>1463.6</v>
       </c>
       <c r="H3" t="n">
-        <v>4.301162633521313</v>
+        <v>7.765307463326871</v>
       </c>
     </row>
     <row r="4">
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>652</v>
+        <v>645.2</v>
       </c>
       <c r="D4" t="n">
-        <v>5.958187643906492</v>
+        <v>5.449770637375485</v>
       </c>
       <c r="E4" t="n">
-        <v>84.8</v>
+        <v>94.8</v>
       </c>
       <c r="F4" t="n">
-        <v>2.280350850198276</v>
+        <v>4.919349550499537</v>
       </c>
       <c r="G4" t="n">
-        <v>179</v>
+        <v>179.4</v>
       </c>
       <c r="H4" t="n">
-        <v>4.301162633521313</v>
+        <v>7.76530746332687</v>
       </c>
     </row>
     <row r="5">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68.40000000000001</v>
+        <v>76.2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.049590136395381</v>
+        <v>3.03315017762062</v>
       </c>
       <c r="E5" t="n">
-        <v>13.8</v>
+        <v>14.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1.643167672515498</v>
+        <v>1.816590212458495</v>
       </c>
       <c r="G5" t="n">
-        <v>46.2</v>
+        <v>45.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.489979919597746</v>
+        <v>3.209361307176243</v>
       </c>
     </row>
     <row r="6">
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6228272251308901</v>
+        <v>0.6223036649214659</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001759972388897564</v>
+        <v>0.004031753572393427</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9483769633507853</v>
+        <v>0.94282722513089</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001680293878102754</v>
+        <v>0.003084120727753557</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8820942408376963</v>
+        <v>0.8823036649214661</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002264057414705712</v>
+        <v>0.003596976761741932</v>
       </c>
     </row>
     <row r="7">
@@ -1521,22 +1521,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4155652782876497</v>
+        <v>0.4139929920722846</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009690254377786551</v>
+        <v>0.003294136197136682</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3575972944048596</v>
+        <v>0.3298509723954636</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01173257020912534</v>
+        <v>0.01708500049911075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5523145505198084</v>
+        <v>0.5527678325450527</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005809227430727605</v>
+        <v>0.009692199548168141</v>
       </c>
     </row>
     <row r="8">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8714285714285713</v>
+        <v>0.8567669172932331</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005732312286457455</v>
+        <v>0.005701410108309432</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7737704918032786</v>
+        <v>0.7639344262295081</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02693717495927046</v>
+        <v>0.02978016741735237</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8269662921348315</v>
+        <v>0.8299625468164795</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009325767489130159</v>
+        <v>0.0120200798021582</v>
       </c>
     </row>
     <row r="9">
@@ -1577,22 +1577,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5268599999999999</v>
+        <v>0.5317999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004334512660034614</v>
+        <v>0.003945250308915764</v>
       </c>
       <c r="E9" t="n">
-        <v>0.95412</v>
+        <v>0.9487399999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001247798060585154</v>
+        <v>0.002625452341978412</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8910600000000001</v>
+        <v>0.8907999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002627356085497372</v>
+        <v>0.004703721930556718</v>
       </c>
     </row>
     <row r="10">
@@ -1605,22 +1605,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.562755605413821</v>
+        <v>0.5582400657284461</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0009920076755804965</v>
+        <v>0.003661863874098598</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4891126942117967</v>
+        <v>0.4606735625362655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01417869062927908</v>
+        <v>0.01884059774194829</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6622709091404311</v>
+        <v>0.6635065151939219</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005021509522299433</v>
+        <v>0.006670289205136202</v>
       </c>
     </row>
     <row r="11">
@@ -1633,22 +1633,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6155659597479306</v>
+        <v>0.6141886817867637</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001234554643256483</v>
+        <v>0.003544937481676033</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7309637658474237</v>
+        <v>0.7152432452574171</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007457818725000345</v>
+        <v>0.01011713468797165</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7954251155374508</v>
+        <v>0.7960910767841236</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003085009623497359</v>
+        <v>0.004278611912552581</v>
       </c>
     </row>
     <row r="12">
@@ -1661,22 +1661,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6991395397055775</v>
+        <v>0.6942760566146862</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001210164077229846</v>
+        <v>0.004358154161180428</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8639539316777345</v>
+        <v>0.8563317344776529</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01367855133644293</v>
+        <v>0.01547395302428142</v>
       </c>
       <c r="G12" t="n">
-        <v>0.859009622026028</v>
+        <v>0.8603860208215079</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004476210033011276</v>
+        <v>0.005326314116047113</v>
       </c>
     </row>
     <row r="13">
@@ -1689,22 +1689,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3622535673572006</v>
+        <v>0.352503362154457</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002571139531174563</v>
+        <v>0.007805586181912354</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5046134376947395</v>
+        <v>0.478778164091109</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0180566241070142</v>
+        <v>0.02272873862424174</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6120467515113606</v>
+        <v>0.6137716231540684</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006902086068356445</v>
+        <v>0.00876253539445143</v>
       </c>
     </row>
     <row r="14">
@@ -1717,22 +1717,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9138999999999999</v>
+        <v>0.9057999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002963106478005821</v>
+        <v>0.003816411927452275</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9922599999999999</v>
+        <v>0.99186</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0009343446901438378</v>
+        <v>0.001021273714534946</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9693999999999999</v>
+        <v>0.9699200000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001577973383805961</v>
+        <v>0.002001749235044185</v>
       </c>
     </row>
     <row r="15">
@@ -1745,22 +1745,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6991395397055775</v>
+        <v>0.6942760566146862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001210164077229842</v>
+        <v>0.004358154161180493</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8639539316777345</v>
+        <v>0.8563317344776529</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0136785513364429</v>
+        <v>0.01547395302428142</v>
       </c>
       <c r="G15" t="n">
-        <v>0.859009622026028</v>
+        <v>0.8603860208215082</v>
       </c>
       <c r="H15" t="n">
-        <v>0.004476210033011314</v>
+        <v>0.005326314116047092</v>
       </c>
     </row>
   </sheetData>
@@ -2725,22 +2725,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>479.2</v>
+        <v>476.8</v>
       </c>
       <c r="D2" t="n">
-        <v>6.220932405998316</v>
+        <v>7.52994023880668</v>
       </c>
       <c r="E2" t="n">
-        <v>49.8</v>
+        <v>50.2</v>
       </c>
       <c r="F2" t="n">
-        <v>1.095445115010332</v>
+        <v>1.483239697419132</v>
       </c>
       <c r="G2" t="n">
-        <v>233.8</v>
+        <v>235.4</v>
       </c>
       <c r="H2" t="n">
-        <v>8.258329128825032</v>
+        <v>7.797435475847171</v>
       </c>
     </row>
     <row r="3">
@@ -2753,22 +2753,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>726.4</v>
+        <v>736.6</v>
       </c>
       <c r="D3" t="n">
-        <v>38.94611662284188</v>
+        <v>42.13430906043197</v>
       </c>
       <c r="E3" t="n">
-        <v>1773.2</v>
+        <v>1768</v>
       </c>
       <c r="F3" t="n">
-        <v>12.47798060585125</v>
+        <v>16.62828914831589</v>
       </c>
       <c r="G3" t="n">
-        <v>1484.6</v>
+        <v>1485.4</v>
       </c>
       <c r="H3" t="n">
-        <v>22.23285856564558</v>
+        <v>21.26734586167254</v>
       </c>
     </row>
     <row r="4">
@@ -2781,22 +2781,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>651.6</v>
+        <v>641.4</v>
       </c>
       <c r="D4" t="n">
-        <v>38.94611662284188</v>
+        <v>42.13430906043197</v>
       </c>
       <c r="E4" t="n">
-        <v>75.8</v>
+        <v>81</v>
       </c>
       <c r="F4" t="n">
-        <v>12.47798060585125</v>
+        <v>16.62828914831589</v>
       </c>
       <c r="G4" t="n">
-        <v>158.4</v>
+        <v>157.6</v>
       </c>
       <c r="H4" t="n">
-        <v>22.23285856564558</v>
+        <v>21.26734586167254</v>
       </c>
     </row>
     <row r="5">
@@ -2809,22 +2809,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52.8</v>
+        <v>55.2</v>
       </c>
       <c r="D5" t="n">
-        <v>6.220932405998316</v>
+        <v>7.52994023880668</v>
       </c>
       <c r="E5" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1.095445115010332</v>
+        <v>1.483239697419132</v>
       </c>
       <c r="G5" t="n">
-        <v>33.2</v>
+        <v>31.6</v>
       </c>
       <c r="H5" t="n">
-        <v>8.258329128825032</v>
+        <v>7.797435475847172</v>
       </c>
     </row>
     <row r="6">
@@ -2837,22 +2837,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6312041884816754</v>
+        <v>0.6352879581151832</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01747703266775479</v>
+        <v>0.0185128698667469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9544502617801047</v>
+        <v>0.9519371727748691</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006094474726085238</v>
+        <v>0.008063507144786786</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8996858638743455</v>
+        <v>0.9009424083769634</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009500850801343967</v>
+        <v>0.007909052398233142</v>
       </c>
     </row>
     <row r="7">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4241310932452206</v>
+        <v>0.4268191711705566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01153059324135377</v>
+        <v>0.01211302544204854</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3997700655781021</v>
+        <v>0.387766192446141</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03860456851046004</v>
+        <v>0.04745849453069451</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5976740529614859</v>
+        <v>0.6004356364439689</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02995199219303278</v>
+        <v>0.02645278787562001</v>
       </c>
     </row>
     <row r="8">
@@ -2893,22 +2893,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9007518796992482</v>
+        <v>0.8962406015037594</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01169348196616223</v>
+        <v>0.01415402300527569</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8163934426229508</v>
+        <v>0.8229508196721312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01795811663951366</v>
+        <v>0.02431540487572348</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8756554307116104</v>
+        <v>0.8816479400749065</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03093007164353945</v>
+        <v>0.02920387818669352</v>
       </c>
     </row>
     <row r="9">
@@ -2921,22 +2921,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5271600000000001</v>
+        <v>0.53454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02826779085814811</v>
+        <v>0.0305854213637805</v>
       </c>
       <c r="E9" t="n">
-        <v>0.95902</v>
+        <v>0.9561999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006725473960993392</v>
+        <v>0.008977193325310559</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9036</v>
+        <v>0.9040799999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01354640173625453</v>
+        <v>0.0129675363889985</v>
       </c>
     </row>
     <row r="10">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5765572307052436</v>
+        <v>0.5780689306410751</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007836328514996401</v>
+        <v>0.007959487446403199</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5354925142652439</v>
+        <v>0.5251724427101095</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02746993338715144</v>
+        <v>0.0341788324203034</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7097124104434828</v>
+        <v>0.7136354674485231</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01666052301644884</v>
+        <v>0.01138175743784527</v>
       </c>
     </row>
     <row r="11">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6248262587673293</v>
+        <v>0.6282963161935602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01391521232942341</v>
+        <v>0.01465457743194602</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7557692014646454</v>
+        <v>0.7499253659165508</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01519994454980006</v>
+        <v>0.01903047438630324</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8245284850448009</v>
+        <v>0.8268634573598398</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01091628545822442</v>
+        <v>0.007889031975408018</v>
       </c>
     </row>
     <row r="12">
@@ -3005,22 +3005,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7139463317219027</v>
+        <v>0.7153917085893253</v>
       </c>
       <c r="D12" t="n">
-        <v>0.009133610361682525</v>
+        <v>0.009243509294519912</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8876991550594472</v>
+        <v>0.8895716780891754</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006676477755791026</v>
+        <v>0.008720257149864331</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8896232113996275</v>
+        <v>0.8928629231719633</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01233072586768686</v>
+        <v>0.009630321233584489</v>
       </c>
     </row>
     <row r="13">
@@ -3033,22 +3033,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3905726489105079</v>
+        <v>0.3923317547822604</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01322392016291361</v>
+        <v>0.01318830371801167</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5517572745521889</v>
+        <v>0.5443402386798002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02410157541272127</v>
+        <v>0.02928262042846659</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6696796539419385</v>
+        <v>0.6746815228752591</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02070505947491773</v>
+        <v>0.01280314436141453</v>
       </c>
     </row>
     <row r="14">
@@ -3061,22 +3061,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9324</v>
+        <v>0.9305199999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004503332099679087</v>
+        <v>0.005738640954093563</v>
       </c>
       <c r="E14" t="n">
-        <v>0.99372</v>
+        <v>0.9939199999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005761944116354982</v>
+        <v>0.0007726577508832647</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9782</v>
+        <v>0.9792400000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.005136146415358495</v>
+        <v>0.004752683452534988</v>
       </c>
     </row>
     <row r="15">
@@ -3089,22 +3089,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7139463317219026</v>
+        <v>0.7153917085893252</v>
       </c>
       <c r="D15" t="n">
-        <v>0.009133610361682564</v>
+        <v>0.009243509294519885</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8876991550594473</v>
+        <v>0.8895716780891755</v>
       </c>
       <c r="F15" t="n">
-        <v>0.006676477755791057</v>
+        <v>0.008720257149864401</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8896232113996275</v>
+        <v>0.8928629231719631</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01233072586768683</v>
+        <v>0.009630321233584446</v>
       </c>
     </row>
   </sheetData>
